--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/ENTRADAS  OBRADOR  ABRIL   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/ENTRADAS  OBRADOR  ABRIL   2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="234">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -3573,6 +3573,21 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3618,6 +3633,126 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3654,126 +3789,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3787,21 +3802,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4132,49 +4132,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="491" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="487" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="487"/>
+      <c r="S1" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="492"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="494" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="495"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="491"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -4182,8 +4182,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="488"/>
-      <c r="T2" s="488"/>
+      <c r="S2" s="493"/>
+      <c r="T2" s="493"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -4228,10 +4228,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="497"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7552,8 +7552,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="493"/>
-      <c r="M90" s="494"/>
+      <c r="L90" s="498"/>
+      <c r="M90" s="499"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7585,8 +7585,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="493"/>
-      <c r="M91" s="494"/>
+      <c r="L91" s="498"/>
+      <c r="M91" s="499"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7789,8 +7789,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="495"/>
-      <c r="P97" s="497"/>
+      <c r="O97" s="500"/>
+      <c r="P97" s="502"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7822,8 +7822,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="496"/>
-      <c r="P98" s="498"/>
+      <c r="O98" s="501"/>
+      <c r="P98" s="503"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -13215,11 +13215,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="484" t="s">
+      <c r="F262" s="489" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="484"/>
-      <c r="H262" s="485"/>
+      <c r="G262" s="489"/>
+      <c r="H262" s="490"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13845,49 +13845,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="491" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="487" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="487"/>
+      <c r="S1" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="492"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="494" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="495"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="491"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13895,8 +13895,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="488"/>
-      <c r="T2" s="488"/>
+      <c r="S2" s="493"/>
+      <c r="T2" s="493"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13941,10 +13941,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="497"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16277,13 +16277,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="501" t="s">
+      <c r="A59" s="546" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="503" t="s">
+      <c r="C59" s="548" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16291,10 +16291,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="505">
+      <c r="G59" s="550">
         <v>44981</v>
       </c>
-      <c r="H59" s="507" t="s">
+      <c r="H59" s="552" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16313,10 +16313,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="509" t="s">
+      <c r="O59" s="554" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="499">
+      <c r="P59" s="544">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16327,18 +16327,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="502"/>
+      <c r="A60" s="547"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="504"/>
+      <c r="C60" s="549"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="506"/>
-      <c r="H60" s="508"/>
+      <c r="G60" s="551"/>
+      <c r="H60" s="553"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16355,8 +16355,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="510"/>
-      <c r="P60" s="500"/>
+      <c r="O60" s="555"/>
+      <c r="P60" s="545"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16594,7 +16594,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="539" t="s">
+      <c r="A66" s="504" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16606,10 +16606,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="541">
+      <c r="G66" s="506">
         <v>44973</v>
       </c>
-      <c r="H66" s="543" t="s">
+      <c r="H66" s="508" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16628,10 +16628,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="545" t="s">
+      <c r="O66" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="547">
+      <c r="P66" s="512">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16642,7 +16642,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="540"/>
+      <c r="A67" s="505"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16652,8 +16652,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="542"/>
-      <c r="H67" s="544"/>
+      <c r="G67" s="507"/>
+      <c r="H67" s="509"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16670,8 +16670,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="546"/>
-      <c r="P67" s="548"/>
+      <c r="O67" s="511"/>
+      <c r="P67" s="513"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16729,13 +16729,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="513" t="s">
+      <c r="A69" s="534" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="515" t="s">
+      <c r="C69" s="536" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16743,10 +16743,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="519">
+      <c r="G69" s="540">
         <v>44979</v>
       </c>
-      <c r="H69" s="517" t="s">
+      <c r="H69" s="538" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16765,10 +16765,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="521" t="s">
+      <c r="O69" s="542" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="511">
+      <c r="P69" s="532">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16779,18 +16779,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="514"/>
+      <c r="A70" s="535"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="516"/>
+      <c r="C70" s="537"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="520"/>
-      <c r="H70" s="518"/>
+      <c r="G70" s="541"/>
+      <c r="H70" s="539"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16807,8 +16807,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="522"/>
-      <c r="P70" s="512"/>
+      <c r="O70" s="543"/>
+      <c r="P70" s="533"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16817,13 +16817,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="527" t="s">
+      <c r="A71" s="522" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="525" t="s">
+      <c r="C71" s="520" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16831,10 +16831,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="530">
+      <c r="G71" s="525">
         <v>44982</v>
       </c>
-      <c r="H71" s="532" t="s">
+      <c r="H71" s="527" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16853,10 +16853,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="535" t="s">
+      <c r="O71" s="516" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="523">
+      <c r="P71" s="518">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16867,18 +16867,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="527"/>
+      <c r="A72" s="522"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="529"/>
+      <c r="C72" s="524"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="530"/>
-      <c r="H72" s="533"/>
+      <c r="G72" s="525"/>
+      <c r="H72" s="528"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16895,8 +16895,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="536"/>
-      <c r="P72" s="538"/>
+      <c r="O72" s="530"/>
+      <c r="P72" s="531"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16905,18 +16905,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="528"/>
+      <c r="A73" s="523"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="526"/>
+      <c r="C73" s="521"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="531"/>
-      <c r="H73" s="534"/>
+      <c r="G73" s="526"/>
+      <c r="H73" s="529"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16933,8 +16933,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="537"/>
-      <c r="P73" s="524"/>
+      <c r="O73" s="517"/>
+      <c r="P73" s="519"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17110,13 +17110,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="539" t="s">
+      <c r="A80" s="504" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="525" t="s">
+      <c r="C80" s="520" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17127,7 +17127,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="549" t="s">
+      <c r="H80" s="514" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17146,10 +17146,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="535" t="s">
+      <c r="O80" s="516" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="523">
+      <c r="P80" s="518">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17160,11 +17160,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="540"/>
+      <c r="A81" s="505"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="526"/>
+      <c r="C81" s="521"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17173,7 +17173,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="550"/>
+      <c r="H81" s="515"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17190,8 +17190,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="537"/>
-      <c r="P81" s="524"/>
+      <c r="O81" s="517"/>
+      <c r="P81" s="519"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -17742,8 +17742,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="493"/>
-      <c r="M99" s="494"/>
+      <c r="L99" s="498"/>
+      <c r="M99" s="499"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17775,8 +17775,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="493"/>
-      <c r="M100" s="494"/>
+      <c r="L100" s="498"/>
+      <c r="M100" s="499"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17979,8 +17979,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="495"/>
-      <c r="P106" s="497"/>
+      <c r="O106" s="500"/>
+      <c r="P106" s="502"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -18012,8 +18012,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="496"/>
-      <c r="P107" s="498"/>
+      <c r="O107" s="501"/>
+      <c r="P107" s="503"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23405,11 +23405,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="484" t="s">
+      <c r="F271" s="489" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="484"/>
-      <c r="H271" s="485"/>
+      <c r="G271" s="489"/>
+      <c r="H271" s="490"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -23983,6 +23983,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -23999,26 +24019,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24033,10 +24033,10 @@
   <dimension ref="A1:X303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19:P19"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24066,49 +24066,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="491" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="487" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="487"/>
+      <c r="S1" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="492"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="494" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="495"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="491"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -24116,8 +24116,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="488"/>
-      <c r="T2" s="488"/>
+      <c r="S2" s="493"/>
+      <c r="T2" s="493"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -24162,10 +24162,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="497"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -25195,7 +25195,9 @@
       <c r="G21" s="58">
         <v>45014</v>
       </c>
-      <c r="H21" s="389"/>
+      <c r="H21" s="389">
+        <v>41859</v>
+      </c>
       <c r="I21" s="60">
         <v>25040</v>
       </c>
@@ -25212,8 +25214,12 @@
         <f t="shared" si="2"/>
         <v>913960</v>
       </c>
-      <c r="O21" s="72"/>
-      <c r="P21" s="74"/>
+      <c r="O21" s="378" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="379">
+        <v>45028</v>
+      </c>
       <c r="Q21" s="86"/>
       <c r="R21" s="65"/>
       <c r="S21" s="47"/>
@@ -25267,10 +25273,10 @@
         <f t="shared" si="2"/>
         <v>435810</v>
       </c>
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="486" t="s">
         <v>231</v>
       </c>
-      <c r="P22" s="559">
+      <c r="P22" s="487">
         <v>45029</v>
       </c>
       <c r="Q22" s="86"/>
@@ -25307,7 +25313,9 @@
       <c r="G23" s="58">
         <v>45016</v>
       </c>
-      <c r="H23" s="389"/>
+      <c r="H23" s="389">
+        <v>41890</v>
+      </c>
       <c r="I23" s="60">
         <v>22990</v>
       </c>
@@ -25324,8 +25332,12 @@
         <f t="shared" si="2"/>
         <v>839135</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
+      <c r="O23" s="486" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="487">
+        <v>45030</v>
+      </c>
       <c r="Q23" s="86"/>
       <c r="R23" s="65"/>
       <c r="S23" s="47"/>
@@ -27334,7 +27346,7 @@
       <c r="B75" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="C75" s="560" t="s">
+      <c r="C75" s="488" t="s">
         <v>233</v>
       </c>
       <c r="D75" s="160"/>
@@ -27631,7 +27643,7 @@
       <c r="G81" s="156">
         <v>45013</v>
       </c>
-      <c r="H81" s="556">
+      <c r="H81" s="484">
         <v>144233</v>
       </c>
       <c r="I81" s="155">
@@ -27653,7 +27665,7 @@
       <c r="O81" s="382" t="s">
         <v>64</v>
       </c>
-      <c r="P81" s="557">
+      <c r="P81" s="485">
         <v>45027</v>
       </c>
       <c r="Q81" s="166"/>
@@ -27716,13 +27728,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="539" t="s">
+      <c r="A83" s="504" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="525" t="s">
+      <c r="C83" s="520" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="433"/>
@@ -27730,10 +27742,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="505">
+      <c r="G83" s="550">
         <v>45014</v>
       </c>
-      <c r="H83" s="551" t="s">
+      <c r="H83" s="556" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -27746,7 +27758,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="555" t="s">
+      <c r="L83" s="560" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -27754,10 +27766,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="495" t="s">
+      <c r="O83" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="553">
+      <c r="P83" s="558">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -27768,18 +27780,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="540"/>
+      <c r="A84" s="505"/>
       <c r="B84" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="526"/>
+      <c r="C84" s="521"/>
       <c r="D84" s="433"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="506"/>
-      <c r="H84" s="552"/>
+      <c r="G84" s="551"/>
+      <c r="H84" s="557"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -27790,14 +27802,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="555"/>
+      <c r="L84" s="560"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="496"/>
-      <c r="P84" s="554"/>
+      <c r="O84" s="501"/>
+      <c r="P84" s="559"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -28228,8 +28240,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="493"/>
-      <c r="M98" s="494"/>
+      <c r="L98" s="498"/>
+      <c r="M98" s="499"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28261,8 +28273,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="493"/>
-      <c r="M99" s="494"/>
+      <c r="L99" s="498"/>
+      <c r="M99" s="499"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28465,8 +28477,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="495"/>
-      <c r="P105" s="497"/>
+      <c r="O105" s="500"/>
+      <c r="P105" s="502"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -28498,8 +28510,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="496"/>
-      <c r="P106" s="498"/>
+      <c r="O106" s="501"/>
+      <c r="P106" s="503"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -33891,11 +33903,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="484" t="s">
+      <c r="F270" s="489" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="484"/>
-      <c r="H270" s="485"/>
+      <c r="G270" s="489"/>
+      <c r="H270" s="490"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601199.24578899995</v>
@@ -34498,7 +34510,7 @@
   <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34528,49 +34540,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="491" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="487" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="487"/>
+      <c r="S1" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="492"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="489" t="s">
+      <c r="W1" s="494" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="490"/>
+      <c r="X1" s="495"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="491"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -34578,8 +34590,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="488"/>
-      <c r="T2" s="488"/>
+      <c r="S2" s="493"/>
+      <c r="T2" s="493"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -34624,10 +34636,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="491" t="s">
+      <c r="O3" s="496" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="492"/>
+      <c r="P3" s="497"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -34668,7 +34680,9 @@
       <c r="G4" s="36">
         <v>45018</v>
       </c>
-      <c r="H4" s="445"/>
+      <c r="H4" s="445">
+        <v>41899</v>
+      </c>
       <c r="I4" s="38">
         <v>23220</v>
       </c>
@@ -34685,8 +34699,12 @@
         <f t="shared" ref="N4:N124" si="2">K4*I4</f>
         <v>847530</v>
       </c>
-      <c r="O4" s="472"/>
-      <c r="P4" s="473"/>
+      <c r="O4" s="472" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="473">
+        <v>45029</v>
+      </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="46"/>
       <c r="S4" s="47"/>
@@ -37408,8 +37426,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O82" s="495"/>
-      <c r="P82" s="553"/>
+      <c r="O82" s="500"/>
+      <c r="P82" s="558"/>
       <c r="Q82" s="158"/>
       <c r="R82" s="125"/>
       <c r="S82" s="176"/>
@@ -37438,8 +37456,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O83" s="496"/>
-      <c r="P83" s="554"/>
+      <c r="O83" s="501"/>
+      <c r="P83" s="559"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -37870,8 +37888,8 @@
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
-      <c r="L97" s="493"/>
-      <c r="M97" s="494"/>
+      <c r="L97" s="498"/>
+      <c r="M97" s="499"/>
       <c r="N97" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -37903,8 +37921,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="493"/>
-      <c r="M98" s="494"/>
+      <c r="L98" s="498"/>
+      <c r="M98" s="499"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -38107,8 +38125,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O104" s="495"/>
-      <c r="P104" s="497"/>
+      <c r="O104" s="500"/>
+      <c r="P104" s="502"/>
       <c r="Q104" s="158"/>
       <c r="R104" s="125"/>
       <c r="S104" s="176"/>
@@ -38140,8 +38158,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="496"/>
-      <c r="P105" s="498"/>
+      <c r="O105" s="501"/>
+      <c r="P105" s="503"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -43533,11 +43551,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F269" s="484" t="s">
+      <c r="F269" s="489" t="s">
         <v>27</v>
       </c>
-      <c r="G269" s="484"/>
-      <c r="H269" s="485"/>
+      <c r="G269" s="489"/>
+      <c r="H269" s="490"/>
       <c r="I269" s="303">
         <f>SUM(I4:I268)</f>
         <v>123088</v>
@@ -44111,16 +44129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
     <mergeCell ref="L97:M98"/>
     <mergeCell ref="O104:O105"/>
     <mergeCell ref="P104:P105"/>
     <mergeCell ref="F269:H269"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/ENTRADAS  OBRADOR  ABRIL   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/ENTRADAS  OBRADOR  ABRIL   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO    2023       " sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="236">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -745,6 +745,12 @@
   </si>
   <si>
     <t>folio 111161</t>
+  </si>
+  <si>
+    <t>CANALES  252</t>
+  </si>
+  <si>
+    <t>CANALES  90</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="563">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3633,6 +3639,126 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3669,126 +3795,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3803,6 +3809,12 @@
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16277,13 +16289,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="546" t="s">
+      <c r="A59" s="506" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="548" t="s">
+      <c r="C59" s="508" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16291,10 +16303,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="550">
+      <c r="G59" s="510">
         <v>44981</v>
       </c>
-      <c r="H59" s="552" t="s">
+      <c r="H59" s="512" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16313,10 +16325,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="554" t="s">
+      <c r="O59" s="514" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="544">
+      <c r="P59" s="504">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16327,18 +16339,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="547"/>
+      <c r="A60" s="507"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="549"/>
+      <c r="C60" s="509"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="551"/>
-      <c r="H60" s="553"/>
+      <c r="G60" s="511"/>
+      <c r="H60" s="513"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16355,8 +16367,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="555"/>
-      <c r="P60" s="545"/>
+      <c r="O60" s="515"/>
+      <c r="P60" s="505"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16594,7 +16606,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="504" t="s">
+      <c r="A66" s="544" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16606,10 +16618,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="506">
+      <c r="G66" s="546">
         <v>44973</v>
       </c>
-      <c r="H66" s="508" t="s">
+      <c r="H66" s="548" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16628,10 +16640,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="510" t="s">
+      <c r="O66" s="550" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="512">
+      <c r="P66" s="552">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16642,7 +16654,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="505"/>
+      <c r="A67" s="545"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16652,8 +16664,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="507"/>
-      <c r="H67" s="509"/>
+      <c r="G67" s="547"/>
+      <c r="H67" s="549"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16670,8 +16682,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="511"/>
-      <c r="P67" s="513"/>
+      <c r="O67" s="551"/>
+      <c r="P67" s="553"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16729,13 +16741,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="534" t="s">
+      <c r="A69" s="518" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="536" t="s">
+      <c r="C69" s="520" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16743,10 +16755,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="540">
+      <c r="G69" s="524">
         <v>44979</v>
       </c>
-      <c r="H69" s="538" t="s">
+      <c r="H69" s="522" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16765,10 +16777,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="542" t="s">
+      <c r="O69" s="526" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="532">
+      <c r="P69" s="516">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16779,18 +16791,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="535"/>
+      <c r="A70" s="519"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="537"/>
+      <c r="C70" s="521"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="541"/>
-      <c r="H70" s="539"/>
+      <c r="G70" s="525"/>
+      <c r="H70" s="523"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16807,8 +16819,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="543"/>
-      <c r="P70" s="533"/>
+      <c r="O70" s="527"/>
+      <c r="P70" s="517"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16817,13 +16829,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="522" t="s">
+      <c r="A71" s="532" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="520" t="s">
+      <c r="C71" s="530" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16831,10 +16843,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="525">
+      <c r="G71" s="535">
         <v>44982</v>
       </c>
-      <c r="H71" s="527" t="s">
+      <c r="H71" s="537" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16853,10 +16865,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="516" t="s">
+      <c r="O71" s="540" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="518">
+      <c r="P71" s="528">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16867,18 +16879,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="522"/>
+      <c r="A72" s="532"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="524"/>
+      <c r="C72" s="534"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="525"/>
-      <c r="H72" s="528"/>
+      <c r="G72" s="535"/>
+      <c r="H72" s="538"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16895,8 +16907,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="530"/>
-      <c r="P72" s="531"/>
+      <c r="O72" s="541"/>
+      <c r="P72" s="543"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16905,18 +16917,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="523"/>
+      <c r="A73" s="533"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="521"/>
+      <c r="C73" s="531"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="526"/>
-      <c r="H73" s="529"/>
+      <c r="G73" s="536"/>
+      <c r="H73" s="539"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16933,8 +16945,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="517"/>
-      <c r="P73" s="519"/>
+      <c r="O73" s="542"/>
+      <c r="P73" s="529"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17110,13 +17122,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="504" t="s">
+      <c r="A80" s="544" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="520" t="s">
+      <c r="C80" s="530" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17127,7 +17139,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="514" t="s">
+      <c r="H80" s="554" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17146,10 +17158,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="516" t="s">
+      <c r="O80" s="540" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="518">
+      <c r="P80" s="528">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17160,11 +17172,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="505"/>
+      <c r="A81" s="545"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="521"/>
+      <c r="C81" s="531"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17173,7 +17185,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="515"/>
+      <c r="H81" s="555"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17190,8 +17202,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="517"/>
-      <c r="P81" s="519"/>
+      <c r="O81" s="542"/>
+      <c r="P81" s="529"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -23983,26 +23995,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -24019,6 +24011,26 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24032,7 +24044,7 @@
   </sheetPr>
   <dimension ref="A1:X303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -27728,13 +27740,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="504" t="s">
+      <c r="A83" s="544" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="520" t="s">
+      <c r="C83" s="530" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="433"/>
@@ -27742,7 +27754,7 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="550">
+      <c r="G83" s="510">
         <v>45014</v>
       </c>
       <c r="H83" s="556" t="s">
@@ -27780,17 +27792,17 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="505"/>
+      <c r="A84" s="545"/>
       <c r="B84" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="521"/>
+      <c r="C84" s="531"/>
       <c r="D84" s="433"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="551"/>
+      <c r="G84" s="511"/>
       <c r="H84" s="557"/>
       <c r="I84" s="155">
         <v>142.5771</v>
@@ -34509,8 +34521,8 @@
   </sheetPr>
   <dimension ref="A1:X302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34962,28 +34974,40 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>234</v>
+      </c>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
       <c r="E10" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="F10" s="57">
+        <v>23990</v>
+      </c>
+      <c r="G10" s="58">
+        <v>45032</v>
+      </c>
       <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60">
+        <v>23990</v>
+      </c>
       <c r="J10" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>35.299999999999997</v>
+      </c>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>846846.99999999988</v>
       </c>
       <c r="O10" s="479"/>
       <c r="P10" s="478"/>
@@ -34997,28 +35021,40 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="412"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="561" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="C11" s="55"/>
       <c r="D11" s="73"/>
       <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="57">
+        <v>10166</v>
+      </c>
+      <c r="G11" s="58">
+        <v>45034</v>
+      </c>
       <c r="H11" s="422"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60">
+        <v>10166</v>
+      </c>
       <c r="J11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>32</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>325312</v>
       </c>
       <c r="O11" s="479"/>
       <c r="P11" s="480"/>
@@ -35034,28 +35070,40 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="413"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="562" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="55"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
+      <c r="F12" s="57">
+        <v>24870</v>
+      </c>
+      <c r="G12" s="58">
+        <v>45035</v>
+      </c>
       <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60">
+        <v>24870</v>
+      </c>
       <c r="J12" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>35.299999999999997</v>
+      </c>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>877910.99999999988</v>
       </c>
       <c r="O12" s="479"/>
       <c r="P12" s="480"/>
@@ -35071,28 +35119,40 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="413" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>235</v>
+      </c>
       <c r="C13" s="77"/>
       <c r="D13" s="56"/>
       <c r="E13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+      <c r="F13" s="57">
+        <v>10636</v>
+      </c>
+      <c r="G13" s="58">
+        <v>45036</v>
+      </c>
       <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="60">
+        <v>10636</v>
+      </c>
       <c r="J13" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>32</v>
+      </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>340352</v>
       </c>
       <c r="O13" s="479"/>
       <c r="P13" s="480"/>
@@ -35108,28 +35168,40 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="77"/>
       <c r="D14" s="56"/>
       <c r="E14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="57">
+        <v>24630</v>
+      </c>
+      <c r="G14" s="58">
+        <v>45037</v>
+      </c>
       <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="60">
+        <v>24630</v>
+      </c>
       <c r="J14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>35.299999999999997</v>
+      </c>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>869438.99999999988</v>
       </c>
       <c r="O14" s="479"/>
       <c r="P14" s="480"/>
@@ -43558,7 +43630,7 @@
       <c r="H269" s="490"/>
       <c r="I269" s="303">
         <f>SUM(I4:I268)</f>
-        <v>123088</v>
+        <v>217380</v>
       </c>
       <c r="J269" s="304"/>
       <c r="K269" s="300"/>
@@ -43657,7 +43729,7 @@
       <c r="M273" s="322"/>
       <c r="N273" s="323">
         <f>SUM(N4:N272)</f>
-        <v>4235553</v>
+        <v>7495414</v>
       </c>
       <c r="O273" s="324"/>
       <c r="Q273" s="325">
@@ -43717,7 +43789,7 @@
       <c r="M276" s="339"/>
       <c r="N276" s="340">
         <f>V273+S273+Q273+N273+L273</f>
-        <v>4235553</v>
+        <v>7495414</v>
       </c>
       <c r="O276" s="341"/>
       <c r="R276" s="310"/>
@@ -44129,16 +44201,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L97:M98"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="F269:H269"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O82:O83"/>
     <mergeCell ref="P82:P83"/>
-    <mergeCell ref="L97:M98"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="P104:P105"/>
-    <mergeCell ref="F269:H269"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/ENTRADAS  OBRADOR  ABRIL   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/ENTRADAS  OBRADOR  ABRIL   2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="236">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -3594,6 +3594,12 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3639,6 +3645,126 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3675,126 +3801,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3809,12 +3815,6 @@
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4144,49 +4144,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="493" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="492"/>
+      <c r="S1" s="494" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="494"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="494" t="s">
+      <c r="W1" s="496" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="495"/>
+      <c r="X1" s="497"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="491"/>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
+      <c r="A2" s="493"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="493"/>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -4194,8 +4194,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="493"/>
-      <c r="T2" s="493"/>
+      <c r="S2" s="495"/>
+      <c r="T2" s="495"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -4240,10 +4240,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="496" t="s">
+      <c r="O3" s="498" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="497"/>
+      <c r="P3" s="499"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7564,8 +7564,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="498"/>
-      <c r="M90" s="499"/>
+      <c r="L90" s="500"/>
+      <c r="M90" s="501"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7597,8 +7597,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="498"/>
-      <c r="M91" s="499"/>
+      <c r="L91" s="500"/>
+      <c r="M91" s="501"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7801,8 +7801,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="500"/>
-      <c r="P97" s="502"/>
+      <c r="O97" s="502"/>
+      <c r="P97" s="504"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7834,8 +7834,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="501"/>
-      <c r="P98" s="503"/>
+      <c r="O98" s="503"/>
+      <c r="P98" s="505"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -13227,11 +13227,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="489" t="s">
+      <c r="F262" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="489"/>
-      <c r="H262" s="490"/>
+      <c r="G262" s="491"/>
+      <c r="H262" s="492"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13857,49 +13857,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="493" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="492"/>
+      <c r="S1" s="494" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="494"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="494" t="s">
+      <c r="W1" s="496" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="495"/>
+      <c r="X1" s="497"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="491"/>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
+      <c r="A2" s="493"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="493"/>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13907,8 +13907,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="493"/>
-      <c r="T2" s="493"/>
+      <c r="S2" s="495"/>
+      <c r="T2" s="495"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13953,10 +13953,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="496" t="s">
+      <c r="O3" s="498" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="497"/>
+      <c r="P3" s="499"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16289,13 +16289,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="506" t="s">
+      <c r="A59" s="548" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="508" t="s">
+      <c r="C59" s="550" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16303,10 +16303,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="510">
+      <c r="G59" s="552">
         <v>44981</v>
       </c>
-      <c r="H59" s="512" t="s">
+      <c r="H59" s="554" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16325,10 +16325,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="514" t="s">
+      <c r="O59" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="504">
+      <c r="P59" s="546">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16339,18 +16339,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="507"/>
+      <c r="A60" s="549"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="509"/>
+      <c r="C60" s="551"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="511"/>
-      <c r="H60" s="513"/>
+      <c r="G60" s="553"/>
+      <c r="H60" s="555"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16367,8 +16367,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="515"/>
-      <c r="P60" s="505"/>
+      <c r="O60" s="557"/>
+      <c r="P60" s="547"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16606,7 +16606,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="544" t="s">
+      <c r="A66" s="506" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16618,10 +16618,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="546">
+      <c r="G66" s="508">
         <v>44973</v>
       </c>
-      <c r="H66" s="548" t="s">
+      <c r="H66" s="510" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16640,10 +16640,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="550" t="s">
+      <c r="O66" s="512" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="552">
+      <c r="P66" s="514">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16654,7 +16654,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="545"/>
+      <c r="A67" s="507"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16664,8 +16664,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="547"/>
-      <c r="H67" s="549"/>
+      <c r="G67" s="509"/>
+      <c r="H67" s="511"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16682,8 +16682,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="551"/>
-      <c r="P67" s="553"/>
+      <c r="O67" s="513"/>
+      <c r="P67" s="515"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16741,13 +16741,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="518" t="s">
+      <c r="A69" s="536" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="520" t="s">
+      <c r="C69" s="538" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16755,10 +16755,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="524">
+      <c r="G69" s="542">
         <v>44979</v>
       </c>
-      <c r="H69" s="522" t="s">
+      <c r="H69" s="540" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16777,10 +16777,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="526" t="s">
+      <c r="O69" s="544" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="516">
+      <c r="P69" s="534">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16791,18 +16791,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="519"/>
+      <c r="A70" s="537"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="521"/>
+      <c r="C70" s="539"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="525"/>
-      <c r="H70" s="523"/>
+      <c r="G70" s="543"/>
+      <c r="H70" s="541"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16819,8 +16819,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="527"/>
-      <c r="P70" s="517"/>
+      <c r="O70" s="545"/>
+      <c r="P70" s="535"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16829,13 +16829,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="532" t="s">
+      <c r="A71" s="524" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="530" t="s">
+      <c r="C71" s="522" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16843,10 +16843,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="535">
+      <c r="G71" s="527">
         <v>44982</v>
       </c>
-      <c r="H71" s="537" t="s">
+      <c r="H71" s="529" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16865,10 +16865,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="540" t="s">
+      <c r="O71" s="518" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="528">
+      <c r="P71" s="520">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16879,18 +16879,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="532"/>
+      <c r="A72" s="524"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="534"/>
+      <c r="C72" s="526"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="535"/>
-      <c r="H72" s="538"/>
+      <c r="G72" s="527"/>
+      <c r="H72" s="530"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16907,8 +16907,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="541"/>
-      <c r="P72" s="543"/>
+      <c r="O72" s="532"/>
+      <c r="P72" s="533"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16917,18 +16917,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="533"/>
+      <c r="A73" s="525"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="531"/>
+      <c r="C73" s="523"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="536"/>
-      <c r="H73" s="539"/>
+      <c r="G73" s="528"/>
+      <c r="H73" s="531"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16945,8 +16945,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="542"/>
-      <c r="P73" s="529"/>
+      <c r="O73" s="519"/>
+      <c r="P73" s="521"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17122,13 +17122,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="544" t="s">
+      <c r="A80" s="506" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="530" t="s">
+      <c r="C80" s="522" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17139,7 +17139,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="554" t="s">
+      <c r="H80" s="516" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17158,10 +17158,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="540" t="s">
+      <c r="O80" s="518" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="528">
+      <c r="P80" s="520">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17172,11 +17172,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="545"/>
+      <c r="A81" s="507"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="531"/>
+      <c r="C81" s="523"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17185,7 +17185,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="555"/>
+      <c r="H81" s="517"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17202,8 +17202,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="542"/>
-      <c r="P81" s="529"/>
+      <c r="O81" s="519"/>
+      <c r="P81" s="521"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -17754,8 +17754,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="498"/>
-      <c r="M99" s="499"/>
+      <c r="L99" s="500"/>
+      <c r="M99" s="501"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17787,8 +17787,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="498"/>
-      <c r="M100" s="499"/>
+      <c r="L100" s="500"/>
+      <c r="M100" s="501"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17991,8 +17991,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="500"/>
-      <c r="P106" s="502"/>
+      <c r="O106" s="502"/>
+      <c r="P106" s="504"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -18024,8 +18024,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="501"/>
-      <c r="P107" s="503"/>
+      <c r="O107" s="503"/>
+      <c r="P107" s="505"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23417,11 +23417,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="489" t="s">
+      <c r="F271" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="489"/>
-      <c r="H271" s="490"/>
+      <c r="G271" s="491"/>
+      <c r="H271" s="492"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -23995,6 +23995,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -24011,26 +24031,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24045,10 +24045,10 @@
   <dimension ref="A1:X303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23:P23"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24078,49 +24078,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="493" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="492"/>
+      <c r="S1" s="494" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="494"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="494" t="s">
+      <c r="W1" s="496" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="495"/>
+      <c r="X1" s="497"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="491"/>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
+      <c r="A2" s="493"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="493"/>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -24128,8 +24128,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="493"/>
-      <c r="T2" s="493"/>
+      <c r="S2" s="495"/>
+      <c r="T2" s="495"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -24174,10 +24174,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="496" t="s">
+      <c r="O3" s="498" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="497"/>
+      <c r="P3" s="499"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -27740,13 +27740,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="544" t="s">
+      <c r="A83" s="506" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="530" t="s">
+      <c r="C83" s="522" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="433"/>
@@ -27754,10 +27754,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="510">
+      <c r="G83" s="552">
         <v>45014</v>
       </c>
-      <c r="H83" s="556" t="s">
+      <c r="H83" s="558" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -27770,7 +27770,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="560" t="s">
+      <c r="L83" s="562" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -27778,10 +27778,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="500" t="s">
+      <c r="O83" s="502" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="558">
+      <c r="P83" s="560">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -27792,18 +27792,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="545"/>
+      <c r="A84" s="507"/>
       <c r="B84" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="531"/>
+      <c r="C84" s="523"/>
       <c r="D84" s="433"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="511"/>
-      <c r="H84" s="557"/>
+      <c r="G84" s="553"/>
+      <c r="H84" s="559"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -27814,14 +27814,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="560"/>
+      <c r="L84" s="562"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="501"/>
-      <c r="P84" s="559"/>
+      <c r="O84" s="503"/>
+      <c r="P84" s="561"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -28252,8 +28252,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="498"/>
-      <c r="M98" s="499"/>
+      <c r="L98" s="500"/>
+      <c r="M98" s="501"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28285,8 +28285,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="498"/>
-      <c r="M99" s="499"/>
+      <c r="L99" s="500"/>
+      <c r="M99" s="501"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28489,8 +28489,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="500"/>
-      <c r="P105" s="502"/>
+      <c r="O105" s="502"/>
+      <c r="P105" s="504"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -28522,8 +28522,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="501"/>
-      <c r="P106" s="503"/>
+      <c r="O106" s="503"/>
+      <c r="P106" s="505"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -33915,11 +33915,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="489" t="s">
+      <c r="F270" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="489"/>
-      <c r="H270" s="490"/>
+      <c r="G270" s="491"/>
+      <c r="H270" s="492"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601199.24578899995</v>
@@ -34521,8 +34521,8 @@
   </sheetPr>
   <dimension ref="A1:X302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34552,49 +34552,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="493" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="492"/>
+      <c r="S1" s="494" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="494"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="494" t="s">
+      <c r="W1" s="496" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="495"/>
+      <c r="X1" s="497"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="491"/>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
+      <c r="A2" s="493"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="493"/>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -34602,8 +34602,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="493"/>
-      <c r="T2" s="493"/>
+      <c r="S2" s="495"/>
+      <c r="T2" s="495"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -34648,10 +34648,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="496" t="s">
+      <c r="O3" s="498" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="497"/>
+      <c r="P3" s="499"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -34747,7 +34747,9 @@
       <c r="G5" s="58">
         <v>45020</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="59">
+        <v>2866</v>
+      </c>
       <c r="I5" s="60">
         <v>22935</v>
       </c>
@@ -34764,8 +34766,12 @@
         <f>K5*I5</f>
         <v>768322.5</v>
       </c>
-      <c r="O5" s="474"/>
-      <c r="P5" s="475"/>
+      <c r="O5" s="474" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="475">
+        <v>45033</v>
+      </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="65"/>
       <c r="S5" s="47"/>
@@ -35021,7 +35027,7 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="561" t="s">
+      <c r="A11" s="489" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="54" t="s">
@@ -35070,7 +35076,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="562" t="s">
+      <c r="A12" s="490" t="s">
         <v>225</v>
       </c>
       <c r="B12" s="54" t="s">
@@ -37498,8 +37504,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O82" s="500"/>
-      <c r="P82" s="558"/>
+      <c r="O82" s="502"/>
+      <c r="P82" s="560"/>
       <c r="Q82" s="158"/>
       <c r="R82" s="125"/>
       <c r="S82" s="176"/>
@@ -37528,8 +37534,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O83" s="501"/>
-      <c r="P83" s="559"/>
+      <c r="O83" s="503"/>
+      <c r="P83" s="561"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -37960,8 +37966,8 @@
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
-      <c r="L97" s="498"/>
-      <c r="M97" s="499"/>
+      <c r="L97" s="500"/>
+      <c r="M97" s="501"/>
       <c r="N97" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -37993,8 +37999,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="498"/>
-      <c r="M98" s="499"/>
+      <c r="L98" s="500"/>
+      <c r="M98" s="501"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -38197,8 +38203,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O104" s="500"/>
-      <c r="P104" s="502"/>
+      <c r="O104" s="502"/>
+      <c r="P104" s="504"/>
       <c r="Q104" s="158"/>
       <c r="R104" s="125"/>
       <c r="S104" s="176"/>
@@ -38230,8 +38236,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="501"/>
-      <c r="P105" s="503"/>
+      <c r="O105" s="503"/>
+      <c r="P105" s="505"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -43623,11 +43629,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F269" s="489" t="s">
+      <c r="F269" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="G269" s="489"/>
-      <c r="H269" s="490"/>
+      <c r="G269" s="491"/>
+      <c r="H269" s="492"/>
       <c r="I269" s="303">
         <f>SUM(I4:I268)</f>
         <v>217380</v>
@@ -44201,16 +44207,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
     <mergeCell ref="L97:M98"/>
     <mergeCell ref="O104:O105"/>
     <mergeCell ref="P104:P105"/>
     <mergeCell ref="F269:H269"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
